--- a/Vokabular.xlsx
+++ b/Vokabular.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/hassan_benbrik_arrow_com/Documents/Desktop/Python/deutsch-lernen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{4A78E3A3-2784-406A-A29C-F14961DFE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD38E4E1-4653-42FF-9E36-57DBA68C2FF3}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{4A78E3A3-2784-406A-A29C-F14961DFE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FADCAC4-7287-4D13-B6AA-370182D66A50}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26655" yWindow="2685" windowWidth="17280" windowHeight="8880" xr2:uid="{D83BC5C6-23EE-42A6-89FC-D98D1F03FC30}"/>
+    <workbookView xWindow="-28920" yWindow="-1020" windowWidth="29040" windowHeight="17520" xr2:uid="{D83BC5C6-23EE-42A6-89FC-D98D1F03FC30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Das Wort</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>After</t>
+  </si>
+  <si>
+    <t>vorab</t>
+  </si>
+  <si>
+    <t>In advance</t>
   </si>
 </sst>
 </file>
@@ -218,12 +224,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F91BF54B-EA7E-403D-B639-C42D2A30A617}" name="Table1" displayName="Table1" ref="A1:C51" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F91BF54B-EA7E-403D-B639-C42D2A30A617}" name="Table1" displayName="Table1" ref="A1:C51" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C51" xr:uid="{F91BF54B-EA7E-403D-B639-C42D2A30A617}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{42EBCDF2-AD1F-4D08-AE47-BB8CC93F8D56}" name="Der Artikel" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E8D38A1F-0C8B-46AE-928E-E95FCA33A78D}" name="Das Wort" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A0C9960B-5F4A-466A-8126-2E208A6AB308}" name="das Synonym" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{42EBCDF2-AD1F-4D08-AE47-BB8CC93F8D56}" name="Der Artikel" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E8D38A1F-0C8B-46AE-928E-E95FCA33A78D}" name="Das Wort" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A0C9960B-5F4A-466A-8126-2E208A6AB308}" name="das Synonym" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,7 +555,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,82 +740,88 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>

--- a/Vokabular.xlsx
+++ b/Vokabular.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/hassan_benbrik_arrow_com/Documents/Desktop/Python/deutsch-lernen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{4A78E3A3-2784-406A-A29C-F14961DFE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FADCAC4-7287-4D13-B6AA-370182D66A50}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{4A78E3A3-2784-406A-A29C-F14961DFE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C809F3A-002B-426A-8CEB-3DAB4A137E27}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1020" windowWidth="29040" windowHeight="17520" xr2:uid="{D83BC5C6-23EE-42A6-89FC-D98D1F03FC30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>Das Wort</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>In advance</t>
+  </si>
+  <si>
+    <t>Hübsch</t>
+  </si>
+  <si>
+    <t>Pretty</t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,6 +760,12 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">

--- a/Vokabular.xlsx
+++ b/Vokabular.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/hassan_benbrik_arrow_com/Documents/Desktop/Python/deutsch-lernen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65059ad00a408fca/Bureau/GitHub_Projects/deutsch-lernen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{4A78E3A3-2784-406A-A29C-F14961DFE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C809F3A-002B-426A-8CEB-3DAB4A137E27}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{4A78E3A3-2784-406A-A29C-F14961DFE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086BF2CE-09EC-49F0-8B6A-E1D3016E6D9E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1020" windowWidth="29040" windowHeight="17520" xr2:uid="{D83BC5C6-23EE-42A6-89FC-D98D1F03FC30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D83BC5C6-23EE-42A6-89FC-D98D1F03FC30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="137">
   <si>
     <t>Das Wort</t>
   </si>
@@ -156,13 +148,304 @@
   </si>
   <si>
     <t>Pretty</t>
+  </si>
+  <si>
+    <t>Rathaus</t>
+  </si>
+  <si>
+    <t>Lebensmittel</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>zurückkommen</t>
+  </si>
+  <si>
+    <t>come back</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>verschlafen</t>
+  </si>
+  <si>
+    <t>overslept</t>
+  </si>
+  <si>
+    <t>as well as</t>
+  </si>
+  <si>
+    <t>weder … noch</t>
+  </si>
+  <si>
+    <t>neither … nor</t>
+  </si>
+  <si>
+    <t>sowohl … als auch</t>
+  </si>
+  <si>
+    <t>entweder ... oder</t>
+  </si>
+  <si>
+    <t>either … or</t>
+  </si>
+  <si>
+    <t>Bestehen (Prüfung)</t>
+  </si>
+  <si>
+    <t>Pass (Exam)</t>
+  </si>
+  <si>
+    <t>um … zu</t>
+  </si>
+  <si>
+    <t>in order to/to</t>
+  </si>
+  <si>
+    <t>deshalb</t>
+  </si>
+  <si>
+    <t>for this reason</t>
+  </si>
+  <si>
+    <t>deswegen</t>
+  </si>
+  <si>
+    <t>because of this</t>
+  </si>
+  <si>
+    <t>daher</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>darum</t>
+  </si>
+  <si>
+    <t>aus diesem grund</t>
+  </si>
+  <si>
+    <t>ergebnis</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>irgendwas</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>derzeit</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>erschöpft</t>
+  </si>
+  <si>
+    <t>exhausted</t>
+  </si>
+  <si>
+    <t>vorbiereiten</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>glücklich</t>
+  </si>
+  <si>
+    <t>lucky/happy</t>
+  </si>
+  <si>
+    <t>einkaufen</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>großartig</t>
+  </si>
+  <si>
+    <t>einander</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>obwohl</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>Krieg</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>to fight/to struggle/to battle</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>eine einzige</t>
+  </si>
+  <si>
+    <t>a single</t>
+  </si>
+  <si>
+    <t>angeln</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>Fest</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>übernehme</t>
+  </si>
+  <si>
+    <t>take over</t>
+  </si>
+  <si>
+    <t>ungefähr</t>
+  </si>
+  <si>
+    <t>approximately/around</t>
+  </si>
+  <si>
+    <t>durch</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>blicken</t>
+  </si>
+  <si>
+    <t>to look</t>
+  </si>
+  <si>
+    <t>verabschieden</t>
+  </si>
+  <si>
+    <t>say goodbye</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>but/rather</t>
+  </si>
+  <si>
+    <t>nicht nur … sondern auch</t>
+  </si>
+  <si>
+    <t>not only … but also</t>
+  </si>
+  <si>
+    <t>Betrag</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>to drive</t>
+  </si>
+  <si>
+    <t>verlieren</t>
+  </si>
+  <si>
+    <t>to lose</t>
+  </si>
+  <si>
+    <t>verdienen</t>
+  </si>
+  <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>Regeln</t>
+  </si>
+  <si>
+    <t>the rules</t>
+  </si>
+  <si>
+    <t>unterschrift</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>unterschreiben</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>geheiratet</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>Verb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +483,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -230,12 +523,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F91BF54B-EA7E-403D-B639-C42D2A30A617}" name="Table1" displayName="Table1" ref="A1:C51" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C51" xr:uid="{F91BF54B-EA7E-403D-B639-C42D2A30A617}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F91BF54B-EA7E-403D-B639-C42D2A30A617}" name="Table1" displayName="Table1" ref="A1:C150" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:C150" xr:uid="{F91BF54B-EA7E-403D-B639-C42D2A30A617}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="B2:B51"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{42EBCDF2-AD1F-4D08-AE47-BB8CC93F8D56}" name="Der Artikel" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E8D38A1F-0C8B-46AE-928E-E95FCA33A78D}" name="Das Wort" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A0C9960B-5F4A-466A-8126-2E208A6AB308}" name="das Synonym" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{42EBCDF2-AD1F-4D08-AE47-BB8CC93F8D56}" name="Der Artikel" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E8D38A1F-0C8B-46AE-928E-E95FCA33A78D}" name="Das Wort" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A0C9960B-5F4A-466A-8126-2E208A6AB308}" name="das Synonym" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,19 +854,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E8A36B-358A-484C-A4BB-C934CF6F4181}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="5" width="21.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -581,95 +879,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,268 +978,652 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A51" xr:uid="{AEE12780-7A61-4E49-9AB9-D61CF952A9DA}">
+  <conditionalFormatting sqref="A2:A150">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$A$10000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21 A19 A14 A24 A64" xr:uid="{AEE12780-7A61-4E49-9AB9-D61CF952A9DA}">
       <formula1>"-,Der,Die,Das"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A18 A2:A13 A65:A150 A20 A22:A23 A25:A63" xr:uid="{95B880AF-AECC-4943-AFFB-AC401FFE710B}">
+      <formula1>$A$201:$A$220</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>